--- a/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kanza/Desktop/OpenClassroom/P5-Dev-Web-Kanap-master/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEA9176-E77C-9C47-BF46-6B3811CA0C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -34,44 +43,131 @@
     <t>Affichage de l'ensemble des produits</t>
   </si>
   <si>
-    <t>OK / Description erreur</t>
-  </si>
-  <si>
-    <t>...</t>
+    <t>Une page “produit” qui affiche (de manière dynamique) les détails du produit sur lequel l'utilisateur a cliqué depuis la page d’accueil. Depuis cette page, l’utilisateur peut sélectionner une quantité, une couleur, et ajouter le produit à son panier.</t>
+  </si>
+  <si>
+    <t>Une page “panier”. Celle-ci contient plusieurs parties : ○ Un résumé des produits dans le panier, le prix total et la possibilité de modifier la quantité d’un produit sélectionné ou bien de supprimer celui-ci. ○ Un formulaire permettant de passer une commande. Les données du formulaire doivent être correctes et bien formatées avant d'être renvoyées au back-end. Par exemple, pas de chiffre dans un champ prénom.</t>
+  </si>
+  <si>
+    <t>Une page “confirmation” : ○ Un message de confirmation de commande, remerciant l'utilisateur pour sa commande, et indiquant l'identifiant de commande envoyé par l’API.</t>
+  </si>
+  <si>
+    <t>La page d’accueil Cette page présente l’ensemble des produits retournés par l’API. Pour chaque produit, il faudra afficher l’image de celui-ci, ainsi que son nom et le début de sa description. En cliquant sur le produit, l’utilisateur sera redirigé sur la page du produit pour consulter celui-ci plus en détail.</t>
+  </si>
+  <si>
+    <t>La page Produit Cette page présente un seul produit ; elle aura un menu déroulant permettant à l'utilisateur de choisir une option de personnalisation, ainsi qu’un input pour saisir la quantité. Ces éléments doivent être pris en compte dans le panier.</t>
+  </si>
+  <si>
+    <t>La page Panier Sur cette page, l’utilisateur va pouvoir modifier la quantité d’un produit de son panier ; à ce moment, le total du panier devra bien se mettre à jour. L’utilisateur aura aussi la possibilité de supprimer un produit de son panier, le produit devra donc disparaître de la page. Les inputs des utilisateurs doivent être analysés et validés pour vérifier le format et le type de données avant l’envoi à l’API. Il ne serait par exemple pas recevable d’accepter un prénom contenant des chiffres, ou une adresse e-mail ne contenant pas de symbole “@”. En cas de problème de saisie, un message d’erreur devra être affiché en dessous du champ correspondant. Attention à ne pas stocker le prix des articles en local. Les données stockées en local ne sont pas sécurisées et l’utilisateur pourrait alors modifier le prix lui-même.</t>
+  </si>
+  <si>
+    <t>La page Confirmation Sur cette page, l'utilisateur doit voir s’afficher son numéro de commande. Il faudra veiller à ce que ce numéro ne soit stocké nulle part.</t>
+  </si>
+  <si>
+    <t>Le code source Celui-ci devra être indenté et utiliser des commentaires en début de chaque fonction pour décrire son rôle. Il devra également être découpé en plusieurs fonctions réutilisables (nommées). Une fonction doit être courte et répondre à un besoin précis. Il ne faudrait pas avoir de longues fonctions qui viendraient répondre à plusieurs besoins à la fois. Exemple : il ne serait pas accepté de mettre une seule et unique fonction en place pour collecter, traiter et envoyer des données.</t>
+  </si>
+  <si>
+    <t>API Concernant l’API, des promesses devront être utilisées pour éviter les callbacks. Il est possible d’utiliser des solutions alternatives, comme fetch, celle-ci englobant la promesse. L’API n’est actuellement que dans sa première version. La requête post qu’il faudra formuler pour passer une commande ne prend pas encore en considération la quantité ni la couleur des produits achetés.</t>
+  </si>
+  <si>
+    <t>Fonctionnement du panier Dans le panier, les produits doivent toujours apparaître de manière regroupée par modèle et par couleur. Si un produit est ajouté dans le panier à plusieurs reprises, avec la même couleur, celui-ci ne doit apparaître qu’une seule fois, mais avec le nombre d’exemplaires ajusté. Si un produit est ajouté dans le panier à plusieurs reprises, mais avec des couleurs différentes, il doit apparaître en deux lignes distinctes avec la couleur et la quantité correspondantes indiquées à chaque fois.</t>
+  </si>
+  <si>
+    <t>Ouvrir la page produit depuis la page d'accueil du site web</t>
+  </si>
+  <si>
+    <t>Affichage du produit selectionné avec le choix de la couleur, la quantité et l'ajout au panier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK </t>
+  </si>
+  <si>
+    <t>L'utilisateur arrive sur le résumé de sa commande avec le choix de supprimer ou modifier la quantité puis rempli un formulaire avc ses coordonnés qui renverra un message d'erreur si celui-ci est mal rensigné</t>
+  </si>
+  <si>
+    <t>Affichage du resumé des produits selectionnés avec un formulaire de renseignement à remplir</t>
+  </si>
+  <si>
+    <t>l'utilisateur valide sa commande</t>
+  </si>
+  <si>
+    <t>un message de remerciement en guise de confirmation de commande avec son numéro apparait</t>
+  </si>
+  <si>
+    <t>erreur</t>
+  </si>
+  <si>
+    <t>Ouvrir la page d'accueil et selectionné un produit</t>
+  </si>
+  <si>
+    <t>la page d'acceuil présente tout les produits disponibles avec leurs images, le nom ainsi qu'un début de description du produit, une fois que l'utilisateur clique sur un produit celui-ci doit s'afficher en détails</t>
+  </si>
+  <si>
+    <t>l'utilisateur rempli son panier</t>
+  </si>
+  <si>
+    <t>le produit ajouter dans le panier apparait avec un choix de personnalisation et un input afin de renseigné la quantité voulu</t>
+  </si>
+  <si>
+    <t>l'utilisateur va modifier la quantité ou supprimer un produit  puis va remplir le formulaire en respectant la syntaxe autorisée</t>
+  </si>
+  <si>
+    <t>le panier devras se mettre à jour selon le choix de l'utilisateur si il modifie la quantité le prix doit s'adapter en fonction et si il supprime un produit il doit disparaitre de la page.  Concernant le formulaire il devras être rempli correctement selon les éxigences du regex imposé dans le cas contraire un message d'erreur apparaitra sous les champs concernés</t>
+  </si>
+  <si>
+    <t>une fois les articles selectionnés et le formulaire rempli, l'utilisateru valide sa commande</t>
+  </si>
+  <si>
+    <t>un message de remerciement en guise de confirmation de commande avec son numéro  apparait sur l'écran, vérifiez que le numéro ne soit stocké nulle part</t>
+  </si>
+  <si>
+    <t>formater son code correctement ( clique droit sur VS puis format document ) definir des fonctions pour chaque actions</t>
+  </si>
+  <si>
+    <t>le code est parfaitement indentée selon les normes, toutes les fonctions appartiennent à leurs actions et sont commentés avec une courte description de leurs rôles</t>
+  </si>
+  <si>
+    <t>L'utilisateur modifie son panier en ajoutant des articles soit des nouveaux produits soit des produits déjà présents</t>
+  </si>
+  <si>
+    <t>si l'utilisateur ajoute des produits de la même couleurs ceux-ci doivent se regroupé dans un seul produit mais avec la quantité total du lot, à l'opposer si les produits ne sont pas de la même couleurs les artciles doivent s'afficher independamment à la ligne</t>
+  </si>
+  <si>
+    <t>l'API est appeler avec fetch puis les donnés sont envoyés avec la méthode post</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Montserrat"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Montserrat"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <name val="Montserrat"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -79,9 +175,33 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -95,8 +215,10 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -106,6 +228,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -120,6 +243,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -134,6 +258,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -142,17 +267,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -161,9 +291,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -172,9 +304,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -189,8 +323,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -200,6 +336,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -214,6 +351,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -228,6 +366,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -242,8 +381,10 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -253,6 +394,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -267,6 +409,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -281,92 +424,108 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -556,26 +715,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.29"/>
-    <col customWidth="1" min="2" max="3" width="58.43"/>
-    <col customWidth="1" min="4" max="4" width="57.86"/>
-    <col customWidth="1" min="5" max="5" width="52.71"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="3" width="58.5" customWidth="1"/>
+    <col min="4" max="4" width="57.83203125" customWidth="1"/>
+    <col min="5" max="5" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" customHeight="1">
+    <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -590,174 +754,260 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="107" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="C3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="186" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="17"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="17"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="17"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="17"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="17"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="17"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="17"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="17"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="17"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="17"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="17"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
+      <c r="C4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="142" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="164" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="161" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="152" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>